--- a/data/Ted_Lasso_RK_f_count.xlsx
+++ b/data/Ted_Lasso_RK_f_count.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e574bb97e1bc8c1/Documents/conferences/Posit/Lasso_way_dataviz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demengha\Documents\GitHub\posit_plotly_crosstalk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{D5F1AEA3-93C1-4C10-9071-E4300BBDDB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBFD851F-B8C3-4381-9851-2A90C86192C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3158D420-B5B9-4291-9FBD-286F1BE29B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35880" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +135,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,7 +427,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +441,7 @@
     <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="12.44140625" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -469,7 +483,7 @@
       <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N1" t="s">
@@ -522,12 +536,12 @@
         <v>13</v>
       </c>
       <c r="L2">
-        <f>F2/G2</f>
+        <f t="shared" ref="L2:L35" si="0">F2/G2</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="M2">
-        <f>L2*100</f>
-        <v>15.384615384615385</v>
+      <c r="M2" s="2">
+        <f>ROUND(L2*100,1)</f>
+        <v>15.4</v>
       </c>
       <c r="N2" t="s">
         <v>12</v>
@@ -553,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E35" si="0">"S"&amp;C3&amp;"_e"&amp;D3</f>
+        <f t="shared" ref="E3:E35" si="1">"S"&amp;C3&amp;"_e"&amp;D3</f>
         <v>S1_e2</v>
       </c>
       <c r="F3">
@@ -579,11 +593,11 @@
         <v>21</v>
       </c>
       <c r="L3">
-        <f>F3/G3</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M35" si="1">L3*100</f>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M35" si="2">ROUND(L3*100,1)</f>
         <v>25</v>
       </c>
       <c r="N3" t="s">
@@ -610,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S1_e3</v>
       </c>
       <c r="F4">
@@ -636,12 +650,12 @@
         <v>34</v>
       </c>
       <c r="L4">
-        <f>F4/G4</f>
+        <f t="shared" si="0"/>
         <v>0.53846153846153844</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>53.846153846153847</v>
+      <c r="M4" s="2">
+        <f t="shared" si="2"/>
+        <v>53.8</v>
       </c>
       <c r="N4" t="s">
         <v>12</v>
@@ -667,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S1_e4</v>
       </c>
       <c r="F5">
@@ -693,12 +707,12 @@
         <v>51</v>
       </c>
       <c r="L5">
-        <f>F5/G5</f>
+        <f t="shared" si="0"/>
         <v>0.47058823529411764</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>47.058823529411761</v>
+      <c r="M5" s="2">
+        <f t="shared" si="2"/>
+        <v>47.1</v>
       </c>
       <c r="N5" t="s">
         <v>12</v>
@@ -724,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S1_e5</v>
       </c>
       <c r="F6">
@@ -750,12 +764,12 @@
         <v>64</v>
       </c>
       <c r="L6">
-        <f>F6/G6</f>
+        <f t="shared" si="0"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>30.76923076923077</v>
+      <c r="M6" s="2">
+        <f t="shared" si="2"/>
+        <v>30.8</v>
       </c>
       <c r="N6" t="s">
         <v>12</v>
@@ -781,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S1_e6</v>
       </c>
       <c r="F7">
@@ -807,12 +821,12 @@
         <v>73</v>
       </c>
       <c r="L7">
-        <f>F7/G7</f>
+        <f t="shared" si="0"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>22.222222222222221</v>
+      <c r="M7" s="2">
+        <f t="shared" si="2"/>
+        <v>22.2</v>
       </c>
       <c r="N7" t="s">
         <v>12</v>
@@ -838,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S1_e7</v>
       </c>
       <c r="F8">
@@ -864,12 +878,12 @@
         <v>88</v>
       </c>
       <c r="L8">
-        <f>F8/G8</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>33.299999999999997</v>
       </c>
       <c r="N8" t="s">
         <v>12</v>
@@ -895,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S1_e8</v>
       </c>
       <c r="F9">
@@ -921,12 +935,12 @@
         <v>106</v>
       </c>
       <c r="L9">
-        <f>F9/G9</f>
+        <f t="shared" si="0"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>38.888888888888893</v>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>38.9</v>
       </c>
       <c r="N9" t="s">
         <v>13</v>
@@ -952,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" ref="E10" si="2">"S"&amp;C10&amp;"_e"&amp;D10</f>
+        <f t="shared" ref="E10" si="3">"S"&amp;C10&amp;"_e"&amp;D10</f>
         <v>S1_e9</v>
       </c>
       <c r="F10">
@@ -978,12 +992,12 @@
         <v>128</v>
       </c>
       <c r="L10">
-        <f>F10/G10</f>
+        <f t="shared" si="0"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>63.636363636363633</v>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>63.6</v>
       </c>
       <c r="N10" t="s">
         <v>13</v>
@@ -1009,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" ref="E11" si="3">"S"&amp;C11&amp;"_e"&amp;D11</f>
+        <f t="shared" ref="E11" si="4">"S"&amp;C11&amp;"_e"&amp;D11</f>
         <v>S1_e10</v>
       </c>
       <c r="F11">
@@ -1035,12 +1049,12 @@
         <v>150</v>
       </c>
       <c r="L11">
-        <f>F11/G11</f>
+        <f t="shared" si="0"/>
         <v>0.22727272727272727</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>22.727272727272727</v>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>22.7</v>
       </c>
       <c r="N11" t="s">
         <v>13</v>
@@ -1066,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e1</v>
       </c>
       <c r="F12">
@@ -1092,12 +1106,12 @@
         <v>166</v>
       </c>
       <c r="L12">
-        <f>F12/G12</f>
+        <f t="shared" si="0"/>
         <v>0.6875</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>68.75</v>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>68.8</v>
       </c>
       <c r="N12" t="s">
         <v>13</v>
@@ -1123,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e2</v>
       </c>
       <c r="F13">
@@ -1149,12 +1163,12 @@
         <v>188</v>
       </c>
       <c r="L13">
-        <f>F13/G13</f>
+        <f t="shared" si="0"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>45.454545454545453</v>
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>45.5</v>
       </c>
       <c r="N13" t="s">
         <v>13</v>
@@ -1180,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e3</v>
       </c>
       <c r="F14">
@@ -1206,11 +1220,11 @@
         <v>196</v>
       </c>
       <c r="L14">
-        <f>F14/G14</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N14" t="s">
@@ -1237,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e4</v>
       </c>
       <c r="F15">
@@ -1263,12 +1277,12 @@
         <v>202</v>
       </c>
       <c r="L15">
-        <f>F15/G15</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>33.299999999999997</v>
       </c>
       <c r="N15" t="s">
         <v>13</v>
@@ -1294,7 +1308,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e5</v>
       </c>
       <c r="F16">
@@ -1320,12 +1334,12 @@
         <v>234</v>
       </c>
       <c r="L16">
-        <f>F16/G16</f>
+        <f t="shared" si="0"/>
         <v>0.71875</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>71.875</v>
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>71.900000000000006</v>
       </c>
       <c r="N16" t="s">
         <v>13</v>
@@ -1351,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e6</v>
       </c>
       <c r="F17">
@@ -1377,12 +1391,12 @@
         <v>252</v>
       </c>
       <c r="L17">
-        <f>F17/G17</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>66.666666666666657</v>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>66.7</v>
       </c>
       <c r="N17" t="s">
         <v>13</v>
@@ -1408,7 +1422,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e7</v>
       </c>
       <c r="F18">
@@ -1434,11 +1448,11 @@
         <v>267</v>
       </c>
       <c r="L18">
-        <f>F18/G18</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="N18" t="s">
@@ -1465,7 +1479,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e8</v>
       </c>
       <c r="F19">
@@ -1491,12 +1505,12 @@
         <v>284</v>
       </c>
       <c r="L19">
-        <f>F19/G19</f>
+        <f t="shared" si="0"/>
         <v>0.29411764705882354</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>29.411764705882355</v>
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>29.4</v>
       </c>
       <c r="N19" t="s">
         <v>13</v>
@@ -1522,7 +1536,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e9</v>
       </c>
       <c r="F20">
@@ -1548,11 +1562,11 @@
         <v>296</v>
       </c>
       <c r="L20">
-        <f>F20/G20</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="1"/>
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N20" t="s">
@@ -1579,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e10</v>
       </c>
       <c r="F21">
@@ -1605,12 +1619,12 @@
         <v>309</v>
       </c>
       <c r="L21">
-        <f>F21/G21</f>
+        <f t="shared" si="0"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
-        <v>30.76923076923077</v>
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>30.8</v>
       </c>
       <c r="N21" t="s">
         <v>13</v>
@@ -1636,7 +1650,7 @@
         <v>11</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e11</v>
       </c>
       <c r="F22">
@@ -1662,12 +1676,12 @@
         <v>321</v>
       </c>
       <c r="L22">
-        <f>F22/G22</f>
+        <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>41.666666666666671</v>
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>41.7</v>
       </c>
       <c r="N22" t="s">
         <v>13</v>
@@ -1693,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S2_e12</v>
       </c>
       <c r="F23">
@@ -1719,12 +1733,12 @@
         <v>365</v>
       </c>
       <c r="L23">
-        <f>F23/G23</f>
+        <f t="shared" si="0"/>
         <v>0.52272727272727271</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="1"/>
-        <v>52.272727272727273</v>
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>52.3</v>
       </c>
       <c r="N23" t="s">
         <v>13</v>
@@ -1750,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e1</v>
       </c>
       <c r="F24">
@@ -1776,12 +1790,12 @@
         <v>382</v>
       </c>
       <c r="L24">
-        <f>F24/G24</f>
+        <f t="shared" si="0"/>
         <v>0.35294117647058826</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>35.294117647058826</v>
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>35.299999999999997</v>
       </c>
       <c r="N24" t="s">
         <v>12</v>
@@ -1807,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e2</v>
       </c>
       <c r="F25">
@@ -1833,12 +1847,12 @@
         <v>413</v>
       </c>
       <c r="L25">
-        <f>F25/G25</f>
+        <f t="shared" si="0"/>
         <v>0.5161290322580645</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>51.612903225806448</v>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>51.6</v>
       </c>
       <c r="N25" t="s">
         <v>12</v>
@@ -1864,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e3</v>
       </c>
       <c r="F26">
@@ -1890,11 +1904,11 @@
         <v>438</v>
       </c>
       <c r="L26">
-        <f>F26/G26</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="N26" t="s">
@@ -1921,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e4</v>
       </c>
       <c r="F27">
@@ -1947,12 +1961,12 @@
         <v>480</v>
       </c>
       <c r="L27">
-        <f>F27/G27</f>
+        <f t="shared" si="0"/>
         <v>0.40476190476190477</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="1"/>
-        <v>40.476190476190474</v>
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>40.5</v>
       </c>
       <c r="N27" t="s">
         <v>12</v>
@@ -1978,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e5</v>
       </c>
       <c r="F28">
@@ -2004,12 +2018,12 @@
         <v>516</v>
       </c>
       <c r="L28">
-        <f>F28/G28</f>
+        <f t="shared" si="0"/>
         <v>0.3611111111111111</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="1"/>
-        <v>36.111111111111107</v>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>36.1</v>
       </c>
       <c r="N28" t="s">
         <v>12</v>
@@ -2035,7 +2049,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e6</v>
       </c>
       <c r="F29">
@@ -2061,12 +2075,12 @@
         <v>537</v>
       </c>
       <c r="L29">
-        <f>F29/G29</f>
+        <f t="shared" si="0"/>
         <v>0.61904761904761907</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="1"/>
-        <v>61.904761904761905</v>
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>61.9</v>
       </c>
       <c r="N29" t="s">
         <v>12</v>
@@ -2092,7 +2106,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e7</v>
       </c>
       <c r="F30">
@@ -2118,12 +2132,12 @@
         <v>567</v>
       </c>
       <c r="L30">
-        <f>F30/G30</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>33.299999999999997</v>
       </c>
       <c r="N30" t="s">
         <v>12</v>
@@ -2149,7 +2163,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e8</v>
       </c>
       <c r="F31">
@@ -2175,12 +2189,12 @@
         <v>593</v>
       </c>
       <c r="L31">
-        <f>F31/G31</f>
+        <f t="shared" si="0"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="1"/>
-        <v>23.076923076923077</v>
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>23.1</v>
       </c>
       <c r="N31" t="s">
         <v>12</v>
@@ -2206,7 +2220,7 @@
         <v>9</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e9</v>
       </c>
       <c r="F32">
@@ -2232,12 +2246,12 @@
         <v>639</v>
       </c>
       <c r="L32">
-        <f>F32/G32</f>
+        <f t="shared" si="0"/>
         <v>0.28260869565217389</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="1"/>
-        <v>28.260869565217391</v>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>28.3</v>
       </c>
       <c r="N32" t="s">
         <v>12</v>
@@ -2263,7 +2277,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e10</v>
       </c>
       <c r="F33">
@@ -2289,12 +2303,12 @@
         <v>657</v>
       </c>
       <c r="L33">
-        <f>F33/G33</f>
+        <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="1"/>
-        <v>55.555555555555557</v>
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>55.6</v>
       </c>
       <c r="N33" t="s">
         <v>12</v>
@@ -2320,7 +2334,7 @@
         <v>11</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e11</v>
       </c>
       <c r="F34">
@@ -2346,12 +2360,12 @@
         <v>703</v>
       </c>
       <c r="L34">
-        <f>F34/G34</f>
+        <f t="shared" si="0"/>
         <v>0.28260869565217389</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="1"/>
-        <v>28.260869565217391</v>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>28.3</v>
       </c>
       <c r="N34" t="s">
         <v>12</v>
@@ -2377,7 +2391,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S3_e12</v>
       </c>
       <c r="F35">
@@ -2403,12 +2417,12 @@
         <v>742</v>
       </c>
       <c r="L35">
-        <f>F35/G35</f>
+        <f t="shared" si="0"/>
         <v>0.28205128205128205</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="1"/>
-        <v>28.205128205128204</v>
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>28.2</v>
       </c>
       <c r="N35" t="s">
         <v>12</v>
@@ -2423,4 +2437,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>